--- a/信用卡贷后系统/二期需求/4权限架构需求书/贷后组织 架构修改业务需求-工作量.xlsx
+++ b/信用卡贷后系统/二期需求/4权限架构需求书/贷后组织 架构修改业务需求-工作量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t>重庆农村商业银行工作量评估表</t>
   </si>
@@ -151,9 +151,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>岗位管理-岗位管理菜单</t>
-  </si>
-  <si>
     <t>岗位管理-岗位管理新增</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>修改组织管理、岗位管理、权限管理架构-资源表修改</t>
   </si>
   <si>
-    <t>修改组织管理、岗位管理、权限管理架构-用户表修改</t>
-  </si>
-  <si>
-    <t>修改组织管理、岗位管理、权限管理架构-岗位表修改</t>
-  </si>
-  <si>
     <t>修改组织管理、岗位管理、权限管理架构-资源分组表修改</t>
   </si>
   <si>
@@ -214,15 +205,9 @@
     <t>修改组织管理、岗位管理、权限管理架构-修改资源管理模块列表页面</t>
   </si>
   <si>
-    <t>修改组织管理、岗位管理、权限管理架构-修改资源管理模块新增页面</t>
-  </si>
-  <si>
     <t>修改组织管理、岗位管理、权限管理架构-修改资源管理模块修改页面</t>
   </si>
   <si>
-    <t>修改组织管理、岗位管理、权限管理架构-修改资源分组列表页面</t>
-  </si>
-  <si>
     <t>修改组织管理、岗位管理、权限管理架构-修改资源分组新增页面</t>
   </si>
   <si>
@@ -238,12 +223,6 @@
     <t>组织管理-用户新增设置默认密码</t>
   </si>
   <si>
-    <t>组织管理-新增机构页面修改</t>
-  </si>
-  <si>
-    <t>组织管理-修改机构页面修改</t>
-  </si>
-  <si>
     <t>合计（人月）</t>
   </si>
   <si>
@@ -322,9 +301,6 @@
     <t>uat</t>
   </si>
   <si>
-    <t>（1）新增岗位管理模块菜单；（2）新增相关资源</t>
-  </si>
-  <si>
     <t>（1）岗位管理新增功能；</t>
   </si>
   <si>
@@ -407,12 +383,6 @@
   </si>
   <si>
     <t>（1）新增用户不用再次设置登陆，默认设置登陆密码</t>
-  </si>
-  <si>
-    <t>（1）组织管理新增机构页面添加类别、级别字段</t>
-  </si>
-  <si>
-    <t>（1）组织管理修改机构页面添加类别、级别字段</t>
   </si>
   <si>
     <t>rmas业务系统岗位管理联调</t>
@@ -452,6 +422,42 @@
   </si>
   <si>
     <t>登录时获取用户资源逻辑修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改组织管理、岗位管理、权限管理架构-用户表修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改组织管理、岗位管理、权限管理架构-岗位表修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位架构组织修改案例</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）新增岗位管理模块菜单；（2）新增相关资源（3）需求讨论、文档整理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改组织管理、岗位管理、权限管理架构-修改资源分组列表页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试案例</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改组织管理、岗位管理、权限管理架构-修改资源管理模块新增页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位管理-岗位组织架构需求、设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位管理-岗位组织架构需求、设计</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +796,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1186,22 +1198,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -1210,10 +1222,10 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1">
@@ -1223,10 +1235,10 @@
       <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
@@ -1238,92 +1250,92 @@
       <c r="B5" s="21">
         <v>44186</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="65" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="22">
-        <f>C51</f>
-        <v>8.1181818181818191</v>
+        <f>C50</f>
+        <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="35.5" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="59" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="64" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="42">
       <c r="A14" s="19" t="s">
@@ -1347,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5">
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
@@ -1360,10 +1372,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
@@ -1373,10 +1385,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
@@ -1386,10 +1398,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
@@ -1399,10 +1411,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
@@ -1412,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
@@ -1425,10 +1437,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
@@ -1438,10 +1450,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
@@ -1451,10 +1463,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
@@ -1464,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
@@ -1477,10 +1489,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
@@ -1490,10 +1502,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
@@ -1503,10 +1515,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
@@ -1516,10 +1528,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5">
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
@@ -1529,10 +1541,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C29" s="5">
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
@@ -1542,10 +1554,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C30" s="5">
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
@@ -1555,10 +1567,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5">
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
@@ -1568,10 +1580,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -1581,10 +1593,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
@@ -1594,10 +1606,10 @@
         <v>20</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
@@ -1607,10 +1619,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
@@ -1620,10 +1632,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C36" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
@@ -1633,10 +1645,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
@@ -1646,10 +1658,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C38" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
@@ -1659,10 +1671,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C39" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
@@ -1672,10 +1684,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C40" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
@@ -1685,10 +1697,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C41" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
@@ -1698,10 +1710,10 @@
         <v>28</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C42" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
@@ -1711,10 +1723,10 @@
         <v>29</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
@@ -1724,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C44" s="5">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
@@ -1737,10 +1749,10 @@
         <v>31</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C45" s="5">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
@@ -1750,10 +1762,10 @@
         <v>32</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C46" s="28">
-        <v>10.3</v>
+        <v>5.5</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
@@ -1762,11 +1774,11 @@
       <c r="A47" s="27">
         <v>33</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>115</v>
+      <c r="B47" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="C47" s="28">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="8"/>
@@ -1775,11 +1787,11 @@
       <c r="A48" s="27">
         <v>34</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>116</v>
+      <c r="B48" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="C48" s="28">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
@@ -1792,50 +1804,37 @@
         <v>117</v>
       </c>
       <c r="C49" s="28">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="27">
-        <v>36</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="28">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
+    <row r="50" spans="1:5">
+      <c r="A50" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="15">
+        <f>SUM(C15:C49)/22</f>
+        <v>6</v>
+      </c>
+      <c r="D50" s="15">
+        <f>SUM(D15:D45)/22</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="15">
-        <f>SUM(C15:C50)/22</f>
-        <v>8.1181818181818191</v>
-      </c>
-      <c r="D51" s="15">
-        <f>SUM(D15:D45)/22</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="24"/>
+      <c r="A51" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="25"/>
+      <c r="B52" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1867,13 +1866,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S38" sqref="S3:S38"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1886,99 +1885,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="55" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="50"/>
+      <c r="N1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="50" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="48" t="s">
-        <v>69</v>
       </c>
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="36" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="49"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="14"/>
@@ -1986,22 +1985,22 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="1:25" ht="27" customHeight="1">
+    <row r="3" spans="1:25" ht="30">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E3" s="7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2018,11 +2017,11 @@
       <c r="K3" s="5">
         <v>0.5</v>
       </c>
-      <c r="L3" s="5">
-        <v>0.5</v>
+      <c r="L3" s="31">
+        <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -2031,35 +2030,35 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="5">
         <f>SUM(E3:R3)</f>
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E4" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2077,7 +2076,7 @@
         <v>0.5</v>
       </c>
       <c r="L4" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
         <v>0.5</v>
@@ -2099,25 +2098,25 @@
       </c>
       <c r="S4" s="5">
         <f>SUM(E4:R4)</f>
-        <v>4.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E5" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2134,8 +2133,8 @@
       <c r="K5" s="5">
         <v>0.5</v>
       </c>
-      <c r="L5" s="5">
-        <v>0.5</v>
+      <c r="L5" s="31">
+        <v>0</v>
       </c>
       <c r="M5" s="5">
         <v>0.5</v>
@@ -2157,25 +2156,25 @@
       </c>
       <c r="S5" s="5">
         <f t="shared" ref="S5:S12" si="0">SUM(E5:R5)</f>
-        <v>4.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E6" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2190,22 +2189,22 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0</v>
       </c>
       <c r="M6" s="5">
         <v>0.5</v>
       </c>
       <c r="N6" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="5">
-        <v>0.5</v>
+      <c r="P6" s="31">
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>0.5</v>
@@ -2215,25 +2214,25 @@
       </c>
       <c r="S6" s="5">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E7" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2250,8 +2249,8 @@
       <c r="K7" s="5">
         <v>0.5</v>
       </c>
-      <c r="L7" s="5">
-        <v>0.5</v>
+      <c r="L7" s="31">
+        <v>0</v>
       </c>
       <c r="M7" s="5">
         <v>0.5</v>
@@ -2273,25 +2272,25 @@
       </c>
       <c r="S7" s="5">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E8" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2308,8 +2307,8 @@
       <c r="K8" s="5">
         <v>0.5</v>
       </c>
-      <c r="L8" s="5">
-        <v>0.5</v>
+      <c r="L8" s="31">
+        <v>0</v>
       </c>
       <c r="M8" s="5">
         <v>0.5</v>
@@ -2331,25 +2330,25 @@
       </c>
       <c r="S8" s="5">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E9" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2366,8 +2365,8 @@
       <c r="K9" s="5">
         <v>0.2</v>
       </c>
-      <c r="L9" s="5">
-        <v>0.5</v>
+      <c r="L9" s="31">
+        <v>0</v>
       </c>
       <c r="M9" s="5">
         <v>0.5</v>
@@ -2389,25 +2388,25 @@
       </c>
       <c r="S9" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -2424,7 +2423,7 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="31">
         <v>0</v>
       </c>
       <c r="M10" s="5">
@@ -2447,25 +2446,25 @@
       </c>
       <c r="S10" s="5">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E11" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -2482,8 +2481,8 @@
       <c r="K11" s="5">
         <v>0.5</v>
       </c>
-      <c r="L11" s="5">
-        <v>0.5</v>
+      <c r="L11" s="31">
+        <v>0</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2505,25 +2504,25 @@
       </c>
       <c r="S11" s="5">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -2563,25 +2562,25 @@
       </c>
       <c r="S12" s="5">
         <f t="shared" si="0"/>
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E13" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -2621,25 +2620,25 @@
       </c>
       <c r="S13" s="5">
         <f t="shared" ref="S13:S20" si="1">SUM(E13:R13)</f>
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E14" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -2679,25 +2678,25 @@
       </c>
       <c r="S14" s="5">
         <f t="shared" si="1"/>
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E15" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -2737,19 +2736,19 @@
       </c>
       <c r="S15" s="5">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="26">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -2785,29 +2784,29 @@
         <v>0</v>
       </c>
       <c r="P16" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>0</v>
+      </c>
+      <c r="R16" s="31">
+        <v>0</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="26">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -2842,30 +2841,30 @@
       <c r="O17" s="7">
         <v>0</v>
       </c>
-      <c r="P17" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0.5</v>
+      <c r="P17" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>0</v>
+      </c>
+      <c r="R17" s="31">
+        <v>0</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="26">
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -2900,30 +2899,30 @@
       <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0.5</v>
+      <c r="P18" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>0</v>
+      </c>
+      <c r="R18" s="31">
+        <v>0</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="26">
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -2958,36 +2957,36 @@
       <c r="O19" s="7">
         <v>0</v>
       </c>
-      <c r="P19" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0.5</v>
+      <c r="P19" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>0</v>
+      </c>
+      <c r="R19" s="31">
+        <v>0</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="26">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E20" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3027,25 +3026,25 @@
       </c>
       <c r="S20" s="5">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="26">
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E21" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -3060,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L21" s="5">
         <v>1</v>
@@ -3085,25 +3084,25 @@
       </c>
       <c r="S21" s="5">
         <f t="shared" ref="S21:S29" si="2">SUM(E21:R21)</f>
-        <v>5.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="26">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E22" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3118,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
         <v>1</v>
@@ -3143,25 +3142,25 @@
       </c>
       <c r="S22" s="5">
         <f t="shared" si="2"/>
-        <v>5.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="26">
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E23" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -3176,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5">
         <v>0.5</v>
@@ -3201,25 +3200,25 @@
       </c>
       <c r="S23" s="5">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="26">
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E24" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3234,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L24" s="5">
         <v>0.5</v>
@@ -3259,25 +3258,25 @@
       </c>
       <c r="S24" s="5">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="26">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E25" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3292,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L25" s="5">
         <v>0.5</v>
@@ -3317,25 +3316,25 @@
       </c>
       <c r="S25" s="5">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="26">
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="7" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E26" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3350,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L26" s="5">
         <v>0.5</v>
@@ -3375,25 +3374,25 @@
       </c>
       <c r="S26" s="5">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="26">
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E27" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3408,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L27" s="5">
         <v>0.5</v>
@@ -3433,25 +3432,25 @@
       </c>
       <c r="S27" s="5">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="26">
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E28" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -3466,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L28" s="5">
         <v>0.5</v>
@@ -3491,25 +3490,25 @@
       </c>
       <c r="S28" s="5">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E29" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -3524,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L29" s="5">
         <v>0.5</v>
@@ -3549,25 +3548,25 @@
       </c>
       <c r="S29" s="5">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="30">
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E30" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3582,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L30" s="5">
         <v>0.5</v>
@@ -3607,25 +3606,25 @@
       </c>
       <c r="S30" s="5">
         <f>SUM(E30:R30)</f>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15">
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E31" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -3640,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L31" s="5">
         <v>0.5</v>
@@ -3665,25 +3664,25 @@
       </c>
       <c r="S31" s="5">
         <f>SUM(E31:R31)</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30">
       <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="E32" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -3698,50 +3697,50 @@
         <v>0</v>
       </c>
       <c r="K32" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L32" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M32" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O32" s="7">
         <v>0</v>
       </c>
       <c r="P32" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="5">
-        <f>SUM(E32:R32)</f>
-        <v>4.8</v>
+        <f t="shared" ref="S32:S37" si="3">SUM(E32:R32)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15">
       <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="E33" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -3765,7 +3764,7 @@
         <v>0.5</v>
       </c>
       <c r="N33" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O33" s="7">
         <v>0</v>
@@ -3780,26 +3779,26 @@
         <v>1</v>
       </c>
       <c r="S33" s="5">
-        <f>SUM(E33:R33)</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="30">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E34" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
@@ -3814,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L34" s="5">
         <v>0.5</v>
       </c>
       <c r="M34" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N34" s="7">
         <v>2</v>
@@ -3829,35 +3828,35 @@
         <v>0</v>
       </c>
       <c r="P34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R34" s="5">
         <v>1</v>
       </c>
-      <c r="Q34" s="5">
-        <v>1</v>
-      </c>
-      <c r="R34" s="5">
-        <v>2</v>
-      </c>
       <c r="S34" s="5">
-        <f t="shared" ref="S34:S38" si="3">SUM(E34:R34)</f>
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>120</v>
+      <c r="C35" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="E35" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -3881,7 +3880,7 @@
         <v>0.5</v>
       </c>
       <c r="N35" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O35" s="7">
         <v>0</v>
@@ -3897,25 +3896,25 @@
       </c>
       <c r="S35" s="5">
         <f t="shared" si="3"/>
-        <v>6.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="7" t="s">
-        <v>116</v>
+      <c r="C36" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E36" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -3930,50 +3929,50 @@
         <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M36" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
         <v>2</v>
       </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5">
-        <v>0.5</v>
-      </c>
       <c r="Q36" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R36" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="3"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="30">
-      <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15">
+      <c r="A37" s="31">
+        <v>37</v>
+      </c>
+      <c r="B37" s="32"/>
       <c r="C37" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>118</v>
+      <c r="D37" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="E37" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -3981,189 +3980,131 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0.5</v>
+      <c r="I37" s="31">
+        <v>0</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0</v>
+      </c>
+      <c r="L37" s="31">
+        <v>0</v>
+      </c>
+      <c r="M37" s="31">
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7">
         <v>0</v>
       </c>
-      <c r="P37" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R37" s="5">
-        <v>1</v>
-      </c>
-      <c r="S37" s="5">
+      <c r="P37" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>0</v>
+      </c>
+      <c r="R37" s="31">
+        <v>2</v>
+      </c>
+      <c r="S37" s="31">
         <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15">
-      <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="5">
         <v>2</v>
       </c>
-      <c r="Q38" s="5">
-        <v>2</v>
-      </c>
-      <c r="R38" s="5">
-        <v>2</v>
-      </c>
-      <c r="S38" s="5">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="9">
-        <f>SUM(E3:E38)</f>
+    </row>
+    <row r="38" spans="1:20" s="1" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="9">
+        <f>SUM(E3:E36)</f>
+        <v>5</v>
+      </c>
+      <c r="F38" s="9">
+        <f>SUM(F3:F36)</f>
+        <v>4</v>
+      </c>
+      <c r="G38" s="9">
+        <f>SUM(G3:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <f>SUM(H3:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <f>SUM(I3:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <f>SUM(J3:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <f>SUM(K3:K36)</f>
+        <v>10</v>
+      </c>
+      <c r="L38" s="9">
+        <f>SUM(L3:L36)</f>
+        <v>11.5</v>
+      </c>
+      <c r="M38" s="9">
+        <f>SUM(M3:M36)</f>
+        <v>17.5</v>
+      </c>
+      <c r="N38" s="9">
+        <f>SUM(N3:N36)</f>
+        <v>14.5</v>
+      </c>
+      <c r="O38" s="9">
+        <f>SUM(O3:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <f>SUM(P3:P37)</f>
         <v>16</v>
       </c>
-      <c r="F39" s="9">
-        <f>SUM(F3:F38)</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G39" s="9">
-        <f t="shared" ref="G39:I39" si="4">SUM(G3:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <f>SUM(J3:J38)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <f>SUM(K3:K38)</f>
-        <v>17.8</v>
-      </c>
-      <c r="L39" s="9">
-        <f>SUM(L3:L38)</f>
-        <v>17.5</v>
-      </c>
-      <c r="M39" s="9">
-        <f>SUM(M3:M38)</f>
-        <v>19.999999999999996</v>
-      </c>
-      <c r="N39" s="9">
-        <f>SUM(N3:N38)</f>
+      <c r="Q38" s="9">
+        <f>SUM(Q3:Q37)</f>
         <v>16.5</v>
       </c>
-      <c r="O39" s="9">
-        <f t="shared" ref="O39" si="5">SUM(O3:O33)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="9">
-        <f>SUM(P3:P38)</f>
-        <v>20</v>
-      </c>
-      <c r="Q39" s="9">
-        <f>SUM(Q3:Q38)</f>
-        <v>20</v>
-      </c>
-      <c r="R39" s="9">
-        <f>SUM(R3:R38)</f>
-        <v>41</v>
-      </c>
-      <c r="S39" s="9">
-        <v>178.6</v>
-      </c>
-      <c r="T39"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="15">
-        <f>S39/22</f>
-        <v>8.1181818181818173</v>
+      <c r="R38" s="9">
+        <f>SUM(R3:R37)</f>
+        <v>37</v>
+      </c>
+      <c r="S38" s="9">
+        <v>132</v>
+      </c>
+      <c r="T38"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="15">
+        <f>S38/22</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4172,7 +4113,7 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B33"/>
+    <mergeCell ref="B3:B31"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
